--- a/biology/Zoologie/Actias_chapae/Actias_chapae.xlsx
+++ b/biology/Zoologie/Actias_chapae/Actias_chapae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Actias chapae est une espèce de Lépidoptères de la famille des Saturniidae. Elle est présente en Asie. C'est une espèce montagnarde enregistrée à partir de 1 500 m d'altitude. Elle a été décrite en 1950 par l'entomologiste allemand Rudolf Mell (d) (1878-1970).
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est présente au Vietnam et au sud de la Chine.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (3 janvier 2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (3 janvier 2024) :
 Actias chapae subsp. bezverkhovi Sochivko &amp; Ivshin, 2008 (Sud du Viêt Nam)
 Actias chapae subsp. chapae</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Actias chapae Mell (d), 1950[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Actias chapae Mell (d), 1950.
 </t>
         </is>
       </c>
